--- a/excel/DSA_Tracker.xlsx
+++ b/excel/DSA_Tracker.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="30240" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Problem Name</t>
   </si>
@@ -37,9 +50,6 @@
     <t>Date Solved</t>
   </si>
   <si>
-    <t>Attempts</t>
-  </si>
-  <si>
     <t>Solution Approach</t>
   </si>
   <si>
@@ -55,9 +65,6 @@
     <t>Key Learnings</t>
   </si>
   <si>
-    <t>Mistakes</t>
-  </si>
-  <si>
     <t>Revisit Priority</t>
   </si>
   <si>
@@ -65,18 +72,66 @@
   </si>
   <si>
     <t>Review Notes</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/description/</t>
+  </si>
+  <si>
+    <t>LeetCode</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Hash Map, Two Pointers, Sorting</t>
+  </si>
+  <si>
+    <t>20/1/2024</t>
+  </si>
+  <si>
+    <t>Hash Map &amp; Two-Pointer Approach</t>
+  </si>
+  <si>
+    <t>O(n) (Hash Map), O(n log n) (Two Pointers)</t>
+  </si>
+  <si>
+    <t>O(n) (Hash Map), O(1) (Two Pointers)</t>
+  </si>
+  <si>
+    <t>Tech_prep/Solutions/Arrays/two_sum.py</t>
+  </si>
+  <si>
+    <t>Efficient use of hash maps for quick lookups, two-pointer alternative</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Focus on the Hash Map approach for interviews.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,19 +139,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -119,21 +511,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,19 +1103,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,14 +1163,59 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/DSA_Tracker.xlsx
+++ b/excel/DSA_Tracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Problem Name</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Space Complexity</t>
   </si>
   <si>
-    <t>Code URL/Path</t>
-  </si>
-  <si>
     <t>Key Learnings</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>O(n) (Hash Map), O(1) (Two Pointers)</t>
   </si>
   <si>
-    <t>Tech_prep/Solutions/Arrays/two_sum.py</t>
-  </si>
-  <si>
     <t>Efficient use of hash maps for quick lookups, two-pointer alternative</t>
   </si>
   <si>
@@ -114,6 +108,48 @@
   </si>
   <si>
     <t>Focus on the Hash Map approach for interviews.</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/</t>
+  </si>
+  <si>
+    <t>Hashing, Sorting</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>Hash sets for duplicates</t>
+  </si>
+  <si>
+    <t>Efficient approach, avoid brute force</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+  </si>
+  <si>
+    <t>Array, Greedy</t>
+  </si>
+  <si>
+    <t>Kadane’s Algorithm, One-Pass, Sliding Window</t>
+  </si>
+  <si>
+    <t>Kadane’s Algorithm (Max Profit Streak), One-Pass (Track Min Price)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>Kadane’s Algorithm for tracking max sum, Min price tracking for best buy/sell strategy</t>
+  </si>
+  <si>
+    <t>Review greedy approach, understand profit streaks</t>
   </si>
 </sst>
 </file>
@@ -126,7 +162,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +184,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,148 +641,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -762,7 +791,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,15 +1138,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,55 +1189,137 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excel/DSA_Tracker.xlsx
+++ b/excel/DSA_Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12640"/>
+    <workbookView windowWidth="30240" windowHeight="12500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
   <si>
     <t>Problem Name</t>
   </si>
@@ -150,6 +150,165 @@
   </si>
   <si>
     <t>Review greedy approach, understand profit streaks</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/description/</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>21/1/2024</t>
+  </si>
+  <si>
+    <t>Used hashmap &amp; sorting approach</t>
+  </si>
+  <si>
+    <t>O(N) or O(N log N)</t>
+  </si>
+  <si>
+    <t>O(1) or O(N)</t>
+  </si>
+  <si>
+    <t>Learned frequency count method &amp; sorting trick</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Can be optimized using frequency array</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
+  </si>
+  <si>
+    <t>Prefix Product, Suffix Product, O(N) solution</t>
+  </si>
+  <si>
+    <t>Prefix &amp; Suffix product approach without division</t>
+  </si>
+  <si>
+    <t>Learned prefix &amp; suffix product technique</t>
+  </si>
+  <si>
+    <t>Need to practice O(1) space optimization</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>Array, DP</t>
+  </si>
+  <si>
+    <t>22/1/2024</t>
+  </si>
+  <si>
+    <t>Kadane’s Algorithm</t>
+  </si>
+  <si>
+    <t>Learned Kadane’s algorithm, handling negative sums</t>
+  </si>
+  <si>
+    <t>Need to revisit Divide &amp; Conquer approach</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/</t>
+  </si>
+  <si>
+    <t>Two Pointers, Binary Search</t>
+  </si>
+  <si>
+    <t>23/1/2024</t>
+  </si>
+  <si>
+    <t>Two-pointer approach (left &amp; right pointers)</t>
+  </si>
+  <si>
+    <t>Efficient search in sorted arrays using two pointers</t>
+  </si>
+  <si>
+    <t>Revise binary search alternative</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/description/</t>
+  </si>
+  <si>
+    <t>Two Pointers, Sorting</t>
+  </si>
+  <si>
+    <t>Sorting, Two Pointers, Hashing</t>
+  </si>
+  <si>
+    <t>Sort + Two Pointers approach</t>
+  </si>
+  <si>
+    <t>O(n²)</t>
+  </si>
+  <si>
+    <t>Handling duplicates, efficient two-pointer strategy</t>
+  </si>
+  <si>
+    <t>Review edge cases (duplicates, zeroes)</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>Two Pointers, Greedy</t>
+  </si>
+  <si>
+    <t>24/1/2024</t>
+  </si>
+  <si>
+    <t>Two-pointer approach (left &amp; right pointers moving towards each other)</t>
+  </si>
+  <si>
+    <t>Maximizing area efficiently using a two-pointer technique</t>
+  </si>
+  <si>
+    <t>Practice different movement strategies for two pointers</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/description/</t>
+  </si>
+  <si>
+    <t>Sorting, Greedy</t>
+  </si>
+  <si>
+    <t>Sorting, Greedy, Intervals</t>
+  </si>
+  <si>
+    <t>Sort by start time, then merge overlapping intervals while iterating</t>
+  </si>
+  <si>
+    <t>O(n log n)</t>
+  </si>
+  <si>
+    <t>Importance of sorting and merging in interval problems</t>
+  </si>
+  <si>
+    <t>Review edge cases where intervals touch but do not overlap</t>
   </si>
 </sst>
 </file>
@@ -162,7 +321,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +343,13 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,139 +825,142 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,63 +1307,66 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="25.65625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
@@ -1235,7 +1407,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -1279,7 +1451,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
@@ -1320,6 +1492,314 @@
       </c>
       <c r="N4" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/excel/DSA_Tracker.xlsx
+++ b/excel/DSA_Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12500"/>
+    <workbookView windowWidth="30240" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
   <si>
     <t>Problem Name</t>
   </si>
@@ -309,6 +309,54 @@
   </si>
   <si>
     <t>Review edge cases where intervals touch but do not overlap</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-interval/description/</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t>Sorting, Merge Intervals</t>
+  </si>
+  <si>
+    <t>Traverse the intervals, add non-overlapping, merge overlapping</t>
+  </si>
+  <si>
+    <t>Handling insertion &amp; merging of intervals</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Edge cases where intervals touch</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Sorting, Hash Table, Strings</t>
+  </si>
+  <si>
+    <t>Use a hashmap with sorted string as key to group anagrams</t>
+  </si>
+  <si>
+    <t>O(n * k log k)</t>
+  </si>
+  <si>
+    <t>O(nk)</t>
+  </si>
+  <si>
+    <t>Efficient string grouping using hashing</t>
+  </si>
+  <si>
+    <t>Consider alternative hashing approaches</t>
   </si>
 </sst>
 </file>
@@ -960,7 +1008,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,10 +1355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1715,7 +1763,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B10" t="s">
@@ -1800,6 +1848,91 @@
       </c>
       <c r="N11" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45353</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="5">
+        <v>45353</v>
+      </c>
+      <c r="N12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="5">
+        <v>45353</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="5">
+        <v>45353</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/excel/DSA_Tracker.xlsx
+++ b/excel/DSA_Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12400"/>
+    <workbookView windowWidth="29100" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="142">
   <si>
     <t>Problem Name</t>
   </si>
@@ -338,6 +338,9 @@
     <t>Group Anagrams</t>
   </si>
   <si>
+    <t>https://neetcode.io/solutions/group-anagrams</t>
+  </si>
+  <si>
     <t>Hashing</t>
   </si>
   <si>
@@ -357,6 +360,99 @@
   </si>
   <si>
     <t>Consider alternative hashing approaches</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/description/</t>
+  </si>
+  <si>
+    <t>HashSet, Sorting, Sequences</t>
+  </si>
+  <si>
+    <t>Use HashSet to check sequence starts and find max length</t>
+  </si>
+  <si>
+    <t>Efficient sequence tracking using HashSet</t>
+  </si>
+  <si>
+    <t>Try an alternative DP approach</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parentheses/description/</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Stack, String Processing</t>
+  </si>
+  <si>
+    <t>Use a stack to track open brackets and match closing ones</t>
+  </si>
+  <si>
+    <t>Stack-based matching approach</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Try implementing without a stack</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Sliding Window, HashMap</t>
+  </si>
+  <si>
+    <t>Use a sliding window with a hash set to track unique characters</t>
+  </si>
+  <si>
+    <t>Efficient window expansion &amp; contraction</t>
+  </si>
+  <si>
+    <t>Implement an alternative approach using an array</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>https://neetcode.io/problems/generate-parentheses</t>
+  </si>
+  <si>
+    <t>recursion</t>
+  </si>
+  <si>
+    <t>Backtracking String, Array, Dynamic Programming, Recursion</t>
+  </si>
+  <si>
+    <t>21/3/2024</t>
+  </si>
+  <si>
+    <t>Recursion and Backtracking</t>
+  </si>
+  <si>
+    <t>O(4^n / sqrt(n))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursion and bases cases </t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/daily-temperatures/description/</t>
   </si>
 </sst>
 </file>
@@ -1000,15 +1096,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,58 +1452,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="25.65625" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1414,43 +1512,43 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1458,43 +1556,43 @@
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1502,43 +1600,43 @@
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1546,43 +1644,43 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1590,43 +1688,43 @@
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1634,175 +1732,175 @@
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1810,129 +1908,316 @@
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>45353</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>45353</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="5">
+      <c r="F13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="6">
         <v>45353</v>
       </c>
-      <c r="H13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>45353</v>
       </c>
-      <c r="N13" t="s">
-        <v>109</v>
+      <c r="N13" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45384</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="6">
+        <v>45384</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45475</v>
+      </c>
+      <c r="H15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="6">
+        <v>45475</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45537</v>
+      </c>
+      <c r="H16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="6">
+        <v>45537</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
